--- a/biology/Médecine/Centre_hospitalier_intercommunal/Centre_hospitalier_intercommunal.xlsx
+++ b/biology/Médecine/Centre_hospitalier_intercommunal/Centre_hospitalier_intercommunal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un centre hospitalier intercommunal (CHI) est un centre hospitalier réparti sur plusieurs communes, résultant généralement de la fusion de centres hospitaliers.
 </t>
@@ -513,34 +525,277 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">En Auvergne-Rhône-Alpes
-Centre hospitalier intercommunal Albertville-Moûtiers (Savoie)
-Centre hospitalier intercommunal Vercors-Isère
-En Bourgogne-Franche-Comté
-Centre hospitalier de Vesoul - Groupe hospitalier de la Haute-Saône (Haute-Saône)
-En Grand Est
-Centre hospitalier Émile-Durkheim à Épinal
+          <t>En Auvergne-Rhône-Alpes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Centre hospitalier intercommunal Albertville-Moûtiers (Savoie)
+Centre hospitalier intercommunal Vercors-Isère</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_intercommunal</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_intercommunal</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des centres hospitaliers intercommunaux</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>En Bourgogne-Franche-Comté</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Centre hospitalier de Vesoul - Groupe hospitalier de la Haute-Saône (Haute-Saône)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_intercommunal</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_intercommunal</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des centres hospitaliers intercommunaux</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>En Grand Est</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Centre hospitalier Émile-Durkheim à Épinal
 Centre intercommunal des hôpitaux du Massif des Vosges - St Dié Des Vosges
 Centre hospitalier intercommunal de Verdun - Saint-Mihiel
-Centre Hospitalier Intercommunal Nord Ardennes - Ardennes - Charleville Mézières 
-En Île-de-France
-Centre hospitalier intercommunal Le Raincy-Montfermeil (Seine-Saint-Denis)
+Centre Hospitalier Intercommunal Nord Ardennes - Ardennes - Charleville Mézières </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_intercommunal</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_intercommunal</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des centres hospitaliers intercommunaux</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>En Île-de-France</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Centre hospitalier intercommunal Le Raincy-Montfermeil (Seine-Saint-Denis)
 Centre hospitalier Robert-Ballanger à Villepinte (Seine-Saint-Denis)
 Centre hospitalier André Grégoire à Montreuil (Seine-Saint-Denis)
 Hôpital intercommunal de Créteil (Val-de-Marne)
-Centre hospitalier intercommunal de Poissy-Saint-Germain-en-Laye (Yvelines)
-En Normandie
-Centre hospitalier intercommunal Eure-Seine à Rouen (Seine-Maritime / Eure)
-Centre hospitalier intercommunal Elbeuf-Louviers/Val de Reuil (Seine-Maritime / Eure)
-En Nouvelle-Aquitaine
-Centre hospitalier Sud Gironde, issu de la fusion des centres hospitaliers de Langon et de La Réole (Gironde)
+Centre hospitalier intercommunal de Poissy-Saint-Germain-en-Laye (Yvelines)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_intercommunal</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_intercommunal</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des centres hospitaliers intercommunaux</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>En Normandie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Centre hospitalier intercommunal Eure-Seine à Rouen (Seine-Maritime / Eure)
+Centre hospitalier intercommunal Elbeuf-Louviers/Val de Reuil (Seine-Maritime / Eure)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_intercommunal</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_intercommunal</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des centres hospitaliers intercommunaux</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>En Nouvelle-Aquitaine</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Centre hospitalier Sud Gironde, issu de la fusion des centres hospitaliers de Langon et de La Réole (Gironde)
 Centre hospitalier de la Côte Basque à Bayonne (Pyrénées-Atlantiques)
-Centre hospitalier intercommunal de Layné à Mont de Marsan (Landes)
-En Occitanie
-Centre hospitalier intercommunal Castelsarrasin-Moissac à Castelsarrasin et Moissac (Tarn-et-Garonne)
-Centre hospitalier intercommunal Castres-Mazamet à Castres (Tarn)
-En Provence-Alpes-Côte d'Azur
-Centre hospitalier intercommunal Toulon-La Seyne-sur-Mer (Var)
+Centre hospitalier intercommunal de Layné à Mont de Marsan (Landes)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_intercommunal</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_intercommunal</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des centres hospitaliers intercommunaux</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>En Occitanie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Centre hospitalier intercommunal Castelsarrasin-Moissac à Castelsarrasin et Moissac (Tarn-et-Garonne)
+Centre hospitalier intercommunal Castres-Mazamet à Castres (Tarn)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_intercommunal</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_intercommunal</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste des centres hospitaliers intercommunaux</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>En Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Centre hospitalier intercommunal Toulon-La Seyne-sur-Mer (Var)
 Centre hospitalier intercommunal des Alpes du Sud.
  Portail de la médecine                     </t>
         </is>
